--- a/_data/jobs.xlsx
+++ b/_data/jobs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/GitHub/uxbrighton/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E7F786-755D-9642-85DC-07AF79691E3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB773294-95C6-0A48-A9EE-A9C9578E8B84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="30340" windowHeight="18700"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="30340" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Contact</t>
   </si>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1145,11 +1145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>33</v>
@@ -1385,7 +1385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1605,6 +1605,77 @@
       </c>
       <c r="AC6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>55</v>
+      </c>
+      <c r="X7">
+        <v>70</v>
+      </c>
+      <c r="Z7">
+        <v>30</v>
+      </c>
+      <c r="AA7">
+        <v>120</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
